--- a/config.xlsx
+++ b/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CuongNguyen\Documents\UiPath\crm_update_information\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcuo\Documents\UiPath\crm_update_information\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166F03C9-10C8-4150-9BBA-5F0E9F65E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3719B1C7-7D00-418C-A534-C7C9D28A7FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4710" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <t>ENV</t>
   </si>
   <si>
-    <t>C:\Users\CuongNguyen\Documents\UiPath\crm_update_information</t>
+    <t>C:\Users\mrcuo\Documents\UiPath\crm_update_information</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="str">
         <f>$B$2&amp;"\process_data"</f>
-        <v>C:\Users\CuongNguyen\Documents\UiPath\crm_update_information\process_data</v>
+        <v>C:\Users\mrcuo\Documents\UiPath\crm_update_information\process_data</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="str">
         <f>$B$2&amp;"\process_data\data.xlsx"</f>
-        <v>C:\Users\CuongNguyen\Documents\UiPath\crm_update_information\process_data\data.xlsx</v>
+        <v>C:\Users\mrcuo\Documents\UiPath\crm_update_information\process_data\data.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/config.xlsx
+++ b/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcuo\Documents\UiPath\crm_update_information\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3719B1C7-7D00-418C-A534-C7C9D28A7FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E76F30-EDA2-495C-801F-EB8F53024D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +111,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,10 +152,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,95 +453,95 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="127.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="127.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B5" s="3" t="str">
         <f>$B$2&amp;"\process_data"</f>
         <v>C:\Users\mrcuo\Documents\UiPath\crm_update_information\process_data</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B6" s="3" t="str">
         <f>$B$2&amp;"\process_data\data.xlsx"</f>
         <v>C:\Users\mrcuo\Documents\UiPath\crm_update_information\process_data\data.xlsx</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
